--- a/analysis_2022/data_raw/NCRO_Station_Metadata.xlsx
+++ b/analysis_2022/data_raw/NCRO_Station_Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pcdistfs1\Share\Water Quality Evaluation Section\Stations\Station Information\Up-to-Date Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/cpien_usbr_gov/Documents/Work/HAB/EDB-HABs-Weeds/analysis_2022/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D026D7-AD19-4E75-874A-6FA798070A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{90D026D7-AD19-4E75-874A-6FA798070A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353C7129-B6FC-4D7B-8AD4-FED35BF40F8E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16440" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WQESStation_Metadata_ALL" sheetId="1" r:id="rId1"/>
@@ -1214,20 +1214,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1590,249 +1587,247 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>211</v>
+      <c r="H2" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>38.2360319</v>
+        <v>38.033354000000003</v>
       </c>
       <c r="L2">
-        <v>-121.6660681</v>
+        <v>-121.61984</v>
       </c>
       <c r="M2">
-        <v>38.23602683</v>
+        <v>38.0333489</v>
       </c>
       <c r="N2">
-        <v>-121.666055</v>
+        <v>-121.61982690000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="U2" s="1">
-        <v>42167</v>
+        <v>41771</v>
       </c>
       <c r="V2" s="1">
-        <v>42836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>37.814722000000003</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-121.42522200000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>37.814716900000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-121.4252089</v>
+      </c>
+      <c r="O3" s="3">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>38.191272099999999</v>
-      </c>
-      <c r="L3">
-        <v>-121.6378941</v>
-      </c>
-      <c r="M3">
-        <v>38.191267000000003</v>
-      </c>
-      <c r="N3">
-        <v>-121.63788099999999</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="1">
-        <v>42167</v>
-      </c>
-      <c r="V3" s="1">
-        <v>43378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="4">
+        <v>38887</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W3" s="4">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1840,53 +1835,53 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>211</v>
+      <c r="G4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>38.175590999999997</v>
+        <v>38.055469000000002</v>
       </c>
       <c r="L4">
-        <v>-121.656919</v>
+        <v>-121.667129</v>
       </c>
       <c r="M4">
-        <v>38.175585900000002</v>
+        <v>38.055463899999999</v>
       </c>
       <c r="N4">
-        <v>-121.6569059</v>
+        <v>-121.6671159</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="S4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="U4" s="1">
-        <v>42167</v>
+        <v>38645</v>
       </c>
       <c r="V4" s="1">
-        <v>43649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1905,25 +1900,25 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>38.065612000000002</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>-121.64793299999999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>38.065598000000001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>-121.647924</v>
       </c>
       <c r="O5">
@@ -1951,83 +1946,81 @@
         <v>42039</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>38.103248000000001</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-121.68616900000001</v>
-      </c>
-      <c r="M6" s="2">
-        <v>38.103242899999998</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-121.6861559</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>37.820110999999997</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-121.449833</v>
+      </c>
+      <c r="M6" s="3">
+        <v>37.820105900000001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-121.44981989999999</v>
+      </c>
+      <c r="O6" s="3">
+        <v>27</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="1">
-        <v>39548</v>
-      </c>
-      <c r="V6" s="1">
-        <v>42089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="4">
+        <v>38782</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W6" s="4">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -2035,64 +2028,64 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>213</v>
+      <c r="G7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>38.108176999999998</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-121.576441</v>
-      </c>
-      <c r="M7" s="2">
-        <v>38.108171900000002</v>
-      </c>
-      <c r="N7" s="2">
-        <v>-121.5764279</v>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>37.820250000000001</v>
+      </c>
+      <c r="L7">
+        <v>-121.434861</v>
+      </c>
+      <c r="M7">
+        <v>37.820244899999999</v>
+      </c>
+      <c r="N7">
+        <v>-121.43484789999999</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="R7" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="U7" s="1">
-        <v>39542</v>
+        <v>41331</v>
       </c>
       <c r="V7" s="1">
-        <v>42445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -2100,126 +2093,122 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>37.968978999999997</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-121.572694</v>
-      </c>
-      <c r="M8" s="2">
-        <v>37.968966999999999</v>
-      </c>
-      <c r="N8" s="2">
-        <v>-121.572695</v>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>37.820127999999997</v>
+      </c>
+      <c r="L8">
+        <v>-121.544661</v>
+      </c>
+      <c r="M8">
+        <v>37.820122900000001</v>
+      </c>
+      <c r="N8">
+        <v>-121.544661</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="P8" t="s">
         <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="R8" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="S8" t="s">
         <v>79</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="U8" s="1">
-        <v>39456</v>
+        <v>39115</v>
       </c>
       <c r="V8" s="1">
-        <v>43475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>214</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>38.033354000000003</v>
-      </c>
-      <c r="L9" s="2">
-        <v>-121.61984</v>
-      </c>
-      <c r="M9" s="2">
-        <v>38.0333489</v>
-      </c>
-      <c r="N9" s="2">
-        <v>-121.61982690000001</v>
+        <v>-2</v>
+      </c>
+      <c r="K9">
+        <v>37.973694000000002</v>
+      </c>
+      <c r="L9">
+        <v>-121.581278</v>
+      </c>
+      <c r="M9">
+        <v>37.973688899999999</v>
+      </c>
+      <c r="N9">
+        <v>-121.58126489999999</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="U9" s="1">
-        <v>41771</v>
+        <v>37104</v>
       </c>
       <c r="V9" s="1">
-        <v>43741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -2230,29 +2219,29 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
-        <v>38.055469000000002</v>
-      </c>
-      <c r="L10" s="2">
-        <v>-121.667129</v>
-      </c>
-      <c r="M10" s="2">
-        <v>38.055463899999999</v>
-      </c>
-      <c r="N10" s="2">
-        <v>-121.6671159</v>
+      <c r="K10">
+        <v>38.015821000000003</v>
+      </c>
+      <c r="L10">
+        <v>-121.58212399999999</v>
+      </c>
+      <c r="M10">
+        <v>38.0158159</v>
+      </c>
+      <c r="N10">
+        <v>-121.5821109</v>
       </c>
       <c r="O10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
@@ -2261,10 +2250,10 @@
         <v>123</v>
       </c>
       <c r="R10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T10" t="s">
         <v>40</v>
@@ -2273,713 +2262,732 @@
         <v>38645</v>
       </c>
       <c r="V10" s="1">
-        <v>42445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>213</v>
+      <c r="H11" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1715</v>
+      </c>
+      <c r="J11">
+        <v>5626.6</v>
       </c>
       <c r="K11">
-        <v>38.015821000000003</v>
+        <v>39.435865</v>
       </c>
       <c r="L11">
-        <v>-121.58212399999999</v>
+        <v>-120.084537</v>
       </c>
       <c r="M11">
-        <v>38.0158159</v>
+        <v>39.435859700000002</v>
       </c>
       <c r="N11">
-        <v>-121.5821109</v>
+        <v>-120.084524</v>
       </c>
       <c r="O11">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Q11" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="R11" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="S11" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="U11" s="1">
-        <v>38645</v>
+        <v>39148</v>
       </c>
       <c r="V11" s="1">
-        <v>42089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>213</v>
+      <c r="G12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>38.003081000000002</v>
+        <v>37.876184000000002</v>
       </c>
       <c r="L12">
-        <v>-121.51093299999999</v>
+        <v>-121.38328799999999</v>
       </c>
       <c r="M12">
-        <v>38.003105900000001</v>
+        <v>37.876178899999999</v>
       </c>
       <c r="N12">
-        <v>-121.5107929</v>
+        <v>-121.3832749</v>
       </c>
       <c r="O12">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="R12" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="U12" s="1">
-        <v>38891</v>
+        <v>43739</v>
       </c>
       <c r="V12" s="1">
-        <v>43621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>213</v>
+      <c r="G13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="K13">
-        <v>38.027124000000001</v>
+        <v>37.833940800000001</v>
       </c>
       <c r="L13">
-        <v>-121.56473099999999</v>
+        <v>-121.38575609999999</v>
       </c>
       <c r="M13">
-        <v>38.027118899999998</v>
+        <v>37.833935699999998</v>
       </c>
       <c r="N13">
-        <v>-121.56471790000001</v>
+        <v>-121.38574300000001</v>
       </c>
       <c r="O13">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
       </c>
       <c r="Q13" t="s">
+        <v>226</v>
+      </c>
+      <c r="R13" t="s">
+        <v>149</v>
+      </c>
+      <c r="S13" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s">
+        <v>124</v>
+      </c>
+      <c r="U13" s="1">
+        <v>37411</v>
+      </c>
+      <c r="V13" s="1">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>37.890777999999997</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-121.488361</v>
+      </c>
+      <c r="M14" s="3">
+        <v>37.890772900000002</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-121.48834789999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>30</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R13" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U13" s="1">
-        <v>38645</v>
-      </c>
-      <c r="V13" s="1">
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>38.071247</v>
-      </c>
-      <c r="L14">
-        <v>-121.578382</v>
-      </c>
-      <c r="M14">
-        <v>38.071241899999997</v>
-      </c>
-      <c r="N14">
-        <v>-121.5783689</v>
-      </c>
-      <c r="O14">
-        <v>13</v>
-      </c>
-      <c r="P14" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>123</v>
-      </c>
-      <c r="R14" t="s">
-        <v>74</v>
-      </c>
-      <c r="S14" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="1">
-        <v>38645</v>
-      </c>
-      <c r="V14" s="1">
-        <v>42445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="U14" s="4">
+        <v>38771</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W14" s="4">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>214</v>
+      <c r="G15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>38.032499999999999</v>
+        <v>38.003081000000002</v>
       </c>
       <c r="L15">
-        <v>-121.719083</v>
+        <v>-121.51093299999999</v>
       </c>
       <c r="M15">
-        <v>38.032494900000003</v>
+        <v>38.003105900000001</v>
       </c>
       <c r="N15">
-        <v>-121.71906989999999</v>
+        <v>-121.5107929</v>
       </c>
       <c r="O15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="R15" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="S15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="T15" t="s">
         <v>40</v>
       </c>
-      <c r="U15" t="s">
-        <v>198</v>
+      <c r="U15" s="1">
+        <v>38891</v>
       </c>
       <c r="V15" s="1">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>213</v>
+      <c r="G16" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I16">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>37.992533000000002</v>
+        <v>37.881425</v>
       </c>
       <c r="L16">
-        <v>-121.454032</v>
+        <v>-121.467399</v>
       </c>
       <c r="M16">
-        <v>37.992527899999999</v>
+        <v>37.881419899999997</v>
       </c>
       <c r="N16">
-        <v>-121.45401889999999</v>
+        <v>-121.4673859</v>
       </c>
       <c r="O16">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Q16" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="R16" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="S16" t="s">
         <v>79</v>
       </c>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U16" s="1">
-        <v>39982</v>
+        <v>37622</v>
       </c>
       <c r="V16" s="1">
-        <v>42089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="I17">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>37.963996000000002</v>
+        <v>38.2360319</v>
       </c>
       <c r="L17">
-        <v>-121.59484999999999</v>
+        <v>-121.6660681</v>
       </c>
       <c r="M17">
-        <v>37.963990899999999</v>
+        <v>38.23602683</v>
       </c>
       <c r="N17">
-        <v>-121.5948369</v>
+        <v>-121.666055</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="s">
         <v>24</v>
       </c>
       <c r="R17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="U17" s="1">
-        <v>39238</v>
+        <v>42167</v>
       </c>
       <c r="V17" s="1">
-        <v>43718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>38.108176999999998</v>
+      </c>
+      <c r="L18">
+        <v>-121.576441</v>
+      </c>
+      <c r="M18">
+        <v>38.108171900000002</v>
+      </c>
+      <c r="N18">
+        <v>-121.5764279</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="1">
+        <v>39542</v>
+      </c>
+      <c r="V18" s="1">
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18">
-        <v>-2</v>
-      </c>
-      <c r="K18">
-        <v>37.973694000000002</v>
-      </c>
-      <c r="L18">
-        <v>-121.581278</v>
-      </c>
-      <c r="M18">
-        <v>37.973688899999999</v>
-      </c>
-      <c r="N18">
-        <v>-121.58126489999999</v>
-      </c>
-      <c r="O18">
-        <v>16</v>
-      </c>
-      <c r="P18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" t="s">
-        <v>94</v>
-      </c>
-      <c r="S18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T18" t="s">
-        <v>91</v>
-      </c>
-      <c r="U18" s="1">
-        <v>37104</v>
-      </c>
-      <c r="V18" s="1">
-        <v>43718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>37.976191999999998</v>
-      </c>
-      <c r="L19">
-        <v>-121.639803</v>
-      </c>
-      <c r="M19">
-        <v>37.976186900000002</v>
-      </c>
-      <c r="N19">
-        <v>-121.6397899</v>
-      </c>
-      <c r="O19">
-        <v>17</v>
-      </c>
-      <c r="P19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" t="s">
-        <v>97</v>
-      </c>
-      <c r="S19" t="s">
-        <v>90</v>
-      </c>
-      <c r="T19" t="s">
-        <v>190</v>
-      </c>
-      <c r="U19" s="1">
-        <v>37156</v>
-      </c>
-      <c r="V19" s="1">
-        <v>43718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>37.810250000000003</v>
+      </c>
+      <c r="L19" s="3">
+        <v>-121.54219399999999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>37.810244900000001</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-121.54218090000001</v>
+      </c>
+      <c r="O19" s="3">
+        <v>35</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="U19" s="4">
+        <v>36644</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W19" s="4">
+        <v>43067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="I20">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>37.976750000000003</v>
+        <v>37.810997200000003</v>
       </c>
       <c r="L20">
-        <v>-121.62008299999999</v>
+        <v>-121.38657499999999</v>
       </c>
       <c r="M20">
-        <v>37.9767449</v>
+        <v>37.8109921</v>
       </c>
       <c r="N20">
-        <v>-121.6200699</v>
+        <v>-121.3865619</v>
       </c>
       <c r="O20">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Q20" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="R20" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S20" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="U20" s="1">
-        <v>37575</v>
+        <v>41354</v>
       </c>
       <c r="V20" s="1">
-        <v>43718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
         <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>37.801026999999998</v>
+        <v>37.793840799999998</v>
       </c>
       <c r="L21">
-        <v>-121.37308899999999</v>
+        <v>-121.5173813</v>
       </c>
       <c r="M21">
-        <v>37.801021900000002</v>
+        <v>37.793835700000002</v>
       </c>
       <c r="N21">
-        <v>-121.373076</v>
+        <v>-121.51736820000001</v>
       </c>
       <c r="O21">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P21" t="s">
         <v>44</v>
       </c>
       <c r="Q21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R21" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="S21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="U21" s="1">
-        <v>42072</v>
+        <v>42060</v>
       </c>
       <c r="V21" s="1">
-        <v>43894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" t="s">
-        <v>109</v>
+        <v>185</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
         <v>103</v>
@@ -2990,65 +2998,64 @@
       <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="I22" s="3">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3"/>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>3.3</v>
+      </c>
       <c r="K22">
-        <v>37.802059800000002</v>
+        <v>37.831801400000003</v>
       </c>
       <c r="L22">
-        <v>-121.4122564</v>
+        <v>-121.5351036</v>
       </c>
       <c r="M22">
-        <v>37.802054699999999</v>
+        <v>37.828000000000003</v>
       </c>
       <c r="N22">
-        <v>-121.4122433</v>
-      </c>
-      <c r="O22">
-        <v>21</v>
+        <v>-121.5526</v>
+      </c>
+      <c r="O22" t="s">
+        <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="Q22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R22" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="S22" t="s">
-        <v>90</v>
-      </c>
-      <c r="T22" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="U22" s="1">
-        <v>41759</v>
+        <v>43200</v>
       </c>
       <c r="V22" s="1">
-        <v>43655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -3056,94 +3063,94 @@
       <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>211</v>
+      <c r="G23" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="K23">
-        <v>37.792859999999997</v>
+        <v>38.027124000000001</v>
       </c>
       <c r="L23">
-        <v>-121.42149499999999</v>
+        <v>-121.56473099999999</v>
       </c>
       <c r="M23">
-        <v>37.792854900000002</v>
+        <v>38.027118899999998</v>
       </c>
       <c r="N23">
-        <v>-121.4214819</v>
+        <v>-121.56471790000001</v>
       </c>
       <c r="O23">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P23" t="s">
         <v>44</v>
       </c>
       <c r="Q23" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="R23" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="S23" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="U23" s="1">
-        <v>41759</v>
+        <v>38645</v>
       </c>
       <c r="V23" s="1">
-        <v>43655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
         <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>211</v>
+      <c r="H24" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="K24">
-        <v>37.810997200000003</v>
+        <v>37.802833</v>
       </c>
       <c r="L24">
-        <v>-121.38657499999999</v>
+        <v>-121.457444</v>
       </c>
       <c r="M24">
-        <v>37.8109921</v>
+        <v>37.802827899999997</v>
       </c>
       <c r="N24">
-        <v>-121.3865619</v>
+        <v>-121.45743090000001</v>
       </c>
       <c r="O24">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
@@ -3152,79 +3159,100 @@
         <v>104</v>
       </c>
       <c r="R24" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="S24" t="s">
         <v>79</v>
       </c>
       <c r="T24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U24" s="1">
-        <v>41354</v>
+        <v>36355</v>
       </c>
       <c r="V24" s="1">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="4" t="s">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="M25" s="4">
-        <v>37.830694440000002</v>
-      </c>
-      <c r="N25" s="4">
-        <v>-121.31158333</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" s="4" t="s">
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25">
+        <v>37.810972</v>
+      </c>
+      <c r="L25">
+        <v>-121.544417</v>
+      </c>
+      <c r="M25">
+        <v>37.810966899999997</v>
+      </c>
+      <c r="N25">
+        <v>-121.54440390000001</v>
+      </c>
+      <c r="O25">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s">
         <v>44</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U25" s="5">
-        <v>39332</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="W25" s="5">
-        <v>41376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q25" t="s">
+        <v>105</v>
+      </c>
+      <c r="R25" t="s">
+        <v>152</v>
+      </c>
+      <c r="S25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T25" t="s">
+        <v>124</v>
+      </c>
+      <c r="U25" s="1">
+        <v>38735</v>
+      </c>
+      <c r="V25" s="1">
+        <v>42915</v>
+      </c>
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -3232,64 +3260,64 @@
       <c r="F26" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>211</v>
+      <c r="G26" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>37.822331200000001</v>
+        <v>37.968978999999997</v>
       </c>
       <c r="L26">
-        <v>-121.3177244</v>
+        <v>-121.572694</v>
       </c>
       <c r="M26">
-        <v>37.822326099999998</v>
+        <v>37.968966999999999</v>
       </c>
       <c r="N26">
-        <v>-121.31771139999999</v>
+        <v>-121.572695</v>
       </c>
       <c r="O26">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="P26" t="s">
         <v>44</v>
       </c>
       <c r="Q26" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="R26" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="S26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="U26" s="1">
-        <v>41435</v>
+        <v>39456</v>
       </c>
       <c r="V26" s="1">
-        <v>43655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -3297,61 +3325,61 @@
       <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>37.870944000000001</v>
+        <v>38.071247</v>
       </c>
       <c r="L27">
-        <v>-121.53</v>
+        <v>-121.578382</v>
       </c>
       <c r="M27">
-        <v>37.870938899999999</v>
+        <v>38.071241899999997</v>
       </c>
       <c r="N27">
-        <v>-121.5299869</v>
+        <v>-121.5783689</v>
       </c>
       <c r="O27">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="R27" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="T27" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="U27" s="1">
-        <v>39171</v>
+        <v>38645</v>
       </c>
       <c r="V27" s="1">
-        <v>42544</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
         <v>103</v>
@@ -3362,155 +3390,157 @@
       <c r="F28" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>213</v>
+      <c r="G28" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K28">
-        <v>37.820127999999997</v>
+        <v>37.807594999999999</v>
       </c>
       <c r="L28">
-        <v>-121.544661</v>
+        <v>-121.33121800000001</v>
       </c>
       <c r="M28">
-        <v>37.820122900000001</v>
+        <v>37.807589900000004</v>
       </c>
       <c r="N28">
-        <v>-121.544661</v>
+        <v>-121.331205</v>
       </c>
       <c r="O28">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R28" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s">
         <v>79</v>
       </c>
       <c r="T28" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="U28" s="1">
-        <v>39115</v>
+        <v>37082</v>
       </c>
       <c r="V28" s="1">
-        <v>43244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="4" t="s">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="K29" s="4">
-        <v>37.820110999999997</v>
-      </c>
-      <c r="L29" s="4">
-        <v>-121.449833</v>
-      </c>
-      <c r="M29" s="4">
-        <v>37.820105900000001</v>
-      </c>
-      <c r="N29" s="4">
-        <v>-121.44981989999999</v>
-      </c>
-      <c r="O29" s="4">
-        <v>27</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="U29" s="5">
-        <v>38782</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="W29" s="5">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29">
+        <v>37.802059800000002</v>
+      </c>
+      <c r="L29">
+        <v>-121.4122564</v>
+      </c>
+      <c r="M29">
+        <v>37.802054699999999</v>
+      </c>
+      <c r="N29">
+        <v>-121.4122433</v>
+      </c>
+      <c r="O29">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>104</v>
+      </c>
+      <c r="R29" t="s">
+        <v>110</v>
+      </c>
+      <c r="S29" t="s">
+        <v>90</v>
+      </c>
+      <c r="T29" t="s">
+        <v>192</v>
+      </c>
+      <c r="U29" s="1">
+        <v>41759</v>
+      </c>
+      <c r="V29" s="1">
+        <v>43655</v>
+      </c>
+      <c r="W29"/>
+    </row>
+    <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>211</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>37.820250000000001</v>
+        <v>37.801026999999998</v>
       </c>
       <c r="L30">
-        <v>-121.434861</v>
+        <v>-121.37308899999999</v>
       </c>
       <c r="M30">
-        <v>37.820244899999999</v>
+        <v>37.801021900000002</v>
       </c>
       <c r="N30">
-        <v>-121.43484789999999</v>
+        <v>-121.373076</v>
       </c>
       <c r="O30">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P30" t="s">
         <v>44</v>
@@ -3519,285 +3549,289 @@
         <v>104</v>
       </c>
       <c r="R30" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="S30" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="T30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U30" s="1">
-        <v>41331</v>
+        <v>42072</v>
       </c>
       <c r="V30" s="1">
-        <v>42909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="6" t="s">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="K31" s="6">
-        <v>37.814722000000003</v>
-      </c>
-      <c r="L31" s="6">
-        <v>-121.42522200000001</v>
-      </c>
-      <c r="M31" s="6">
-        <v>37.814716900000001</v>
-      </c>
-      <c r="N31" s="6">
-        <v>-121.4252089</v>
-      </c>
-      <c r="O31" s="6">
-        <v>29</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="U31" s="7">
-        <v>38887</v>
-      </c>
-      <c r="V31" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="W31" s="7">
-        <v>43330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="K32" s="6">
-        <v>37.890777999999997</v>
-      </c>
-      <c r="L32" s="6">
-        <v>-121.488361</v>
-      </c>
-      <c r="M32" s="6">
-        <v>37.890772900000002</v>
-      </c>
-      <c r="N32" s="6">
-        <v>-121.48834789999999</v>
-      </c>
-      <c r="O32" s="6">
-        <v>30</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="U32" s="7">
-        <v>38771</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="W32" s="7">
-        <v>43326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31">
+        <v>37.976191999999998</v>
+      </c>
+      <c r="L31">
+        <v>-121.639803</v>
+      </c>
+      <c r="M31">
+        <v>37.976186900000002</v>
+      </c>
+      <c r="N31">
+        <v>-121.6397899</v>
+      </c>
+      <c r="O31">
+        <v>17</v>
+      </c>
+      <c r="P31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" t="s">
+        <v>97</v>
+      </c>
+      <c r="S31" t="s">
+        <v>90</v>
+      </c>
+      <c r="T31" t="s">
+        <v>190</v>
+      </c>
+      <c r="U31" s="1">
+        <v>37156</v>
+      </c>
+      <c r="V31" s="1">
+        <v>43718</v>
+      </c>
+      <c r="W31"/>
+    </row>
+    <row r="32" spans="1:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32">
+        <v>-2</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32">
+        <v>37.976750000000003</v>
+      </c>
+      <c r="L32">
+        <v>-121.62008299999999</v>
+      </c>
+      <c r="M32">
+        <v>37.9767449</v>
+      </c>
+      <c r="N32">
+        <v>-121.6200699</v>
+      </c>
+      <c r="O32">
+        <v>18</v>
+      </c>
+      <c r="P32" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="s">
+        <v>100</v>
+      </c>
+      <c r="S32" t="s">
+        <v>90</v>
+      </c>
+      <c r="T32" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="1">
+        <v>37575</v>
+      </c>
+      <c r="V32" s="1">
+        <v>43718</v>
+      </c>
+      <c r="W32"/>
+    </row>
+    <row r="33" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>214</v>
+      <c r="H33" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>37.881425</v>
+        <v>38.175590999999997</v>
       </c>
       <c r="L33">
-        <v>-121.467399</v>
+        <v>-121.656919</v>
       </c>
       <c r="M33">
-        <v>37.881419899999997</v>
+        <v>38.175585900000002</v>
       </c>
       <c r="N33">
-        <v>-121.4673859</v>
+        <v>-121.6569059</v>
       </c>
       <c r="O33">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q33" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="R33" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="S33" t="s">
         <v>79</v>
       </c>
       <c r="T33" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="U33" s="1">
-        <v>37622</v>
+        <v>42167</v>
       </c>
       <c r="V33" s="1">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>215</v>
+      <c r="H34" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="K34">
-        <v>37.876184000000002</v>
+        <v>37.822331200000001</v>
       </c>
       <c r="L34">
-        <v>-121.38328799999999</v>
+        <v>-121.3177244</v>
       </c>
       <c r="M34">
-        <v>37.876178899999999</v>
+        <v>37.822326099999998</v>
       </c>
       <c r="N34">
-        <v>-121.3832749</v>
+        <v>-121.31771139999999</v>
       </c>
       <c r="O34">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P34" t="s">
         <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="R34" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="S34" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="T34" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="U34" s="1">
-        <v>43739</v>
+        <v>41435</v>
       </c>
       <c r="V34" s="1">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
@@ -3805,187 +3839,181 @@
       <c r="F35" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>211</v>
+      <c r="H35" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K35">
-        <v>37.833940800000001</v>
+        <v>38.032499999999999</v>
       </c>
       <c r="L35">
-        <v>-121.38575609999999</v>
+        <v>-121.719083</v>
       </c>
       <c r="M35">
-        <v>37.833935699999998</v>
+        <v>38.032494900000003</v>
       </c>
       <c r="N35">
-        <v>-121.38574300000001</v>
+        <v>-121.71906989999999</v>
       </c>
       <c r="O35">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="Q35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R35" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s">
         <v>79</v>
       </c>
       <c r="T35" t="s">
-        <v>124</v>
-      </c>
-      <c r="U35" s="1">
-        <v>37411</v>
+        <v>40</v>
+      </c>
+      <c r="U35" t="s">
+        <v>198</v>
       </c>
       <c r="V35" s="1">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" t="s">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3">
+        <v>37.830694440000002</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-121.31158333</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="4">
+        <v>39332</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="W36" s="4">
+        <v>41376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
         <v>21</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>37.810972</v>
-      </c>
-      <c r="L36">
-        <v>-121.544417</v>
-      </c>
-      <c r="M36">
-        <v>37.810966899999997</v>
-      </c>
-      <c r="N36">
-        <v>-121.54440390000001</v>
-      </c>
-      <c r="O36">
-        <v>34</v>
-      </c>
-      <c r="P36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>105</v>
-      </c>
-      <c r="R36" t="s">
-        <v>152</v>
-      </c>
-      <c r="S36" t="s">
+      <c r="G37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37">
+        <v>38.191272099999999</v>
+      </c>
+      <c r="L37">
+        <v>-121.6378941</v>
+      </c>
+      <c r="M37">
+        <v>38.191267000000003</v>
+      </c>
+      <c r="N37">
+        <v>-121.63788099999999</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" t="s">
         <v>79</v>
       </c>
-      <c r="T36" t="s">
-        <v>124</v>
-      </c>
-      <c r="U36" s="1">
-        <v>38735</v>
-      </c>
-      <c r="V36" s="1">
-        <v>42915</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="K37" s="6">
-        <v>37.810250000000003</v>
-      </c>
-      <c r="L37" s="6">
-        <v>-121.54219399999999</v>
-      </c>
-      <c r="M37" s="6">
-        <v>37.810244900000001</v>
-      </c>
-      <c r="N37" s="6">
-        <v>-121.54218090000001</v>
-      </c>
-      <c r="O37" s="6">
-        <v>35</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T37" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="U37" s="7">
-        <v>36644</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="W37" s="7">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T37" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="1">
+        <v>42167</v>
+      </c>
+      <c r="V37" s="1">
+        <v>43378</v>
+      </c>
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
@@ -3996,126 +4024,126 @@
       <c r="F38" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>37.793840799999998</v>
+        <v>37.792859999999997</v>
       </c>
       <c r="L38">
-        <v>-121.5173813</v>
+        <v>-121.42149499999999</v>
       </c>
       <c r="M38">
-        <v>37.793835700000002</v>
+        <v>37.792854900000002</v>
       </c>
       <c r="N38">
-        <v>-121.51736820000001</v>
+        <v>-121.4214819</v>
       </c>
       <c r="O38">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P38" t="s">
         <v>44</v>
       </c>
       <c r="Q38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R38" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="S38" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="T38" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="U38" s="1">
-        <v>42060</v>
+        <v>41759</v>
       </c>
       <c r="V38" s="1">
-        <v>42899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>215</v>
+      <c r="G39" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>37.802833</v>
+        <v>38.103248000000001</v>
       </c>
       <c r="L39">
-        <v>-121.457444</v>
+        <v>-121.68616900000001</v>
       </c>
       <c r="M39">
-        <v>37.802827899999997</v>
+        <v>38.103242899999998</v>
       </c>
       <c r="N39">
-        <v>-121.45743090000001</v>
+        <v>-121.6861559</v>
       </c>
       <c r="O39">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="R39" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="S39" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="T39" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="U39" s="1">
-        <v>36355</v>
+        <v>39548</v>
       </c>
       <c r="V39" s="1">
-        <v>43628</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
         <v>103</v>
@@ -4126,29 +4154,29 @@
       <c r="F40" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>211</v>
+      <c r="H40" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40">
-        <v>37.807594999999999</v>
+        <v>37.790087999999997</v>
       </c>
       <c r="L40">
-        <v>-121.33121800000001</v>
+        <v>-121.41845000000001</v>
       </c>
       <c r="M40">
-        <v>37.807589900000004</v>
+        <v>37.790082900000002</v>
       </c>
       <c r="N40">
-        <v>-121.331205</v>
+        <v>-121.4184369</v>
       </c>
       <c r="O40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
@@ -4157,87 +4185,84 @@
         <v>104</v>
       </c>
       <c r="R40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S40" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="T40" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="U40" s="1">
-        <v>37082</v>
+        <v>41822</v>
       </c>
       <c r="V40" s="1">
-        <v>43214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>1730</v>
+      </c>
+      <c r="J41">
+        <v>5675.9</v>
       </c>
       <c r="K41">
-        <v>37.790087999999997</v>
+        <v>39.338200000000001</v>
       </c>
       <c r="L41">
-        <v>-121.41845000000001</v>
+        <v>-120.13326000000001</v>
       </c>
       <c r="M41">
-        <v>37.790082900000002</v>
+        <v>39.338194700000003</v>
       </c>
       <c r="N41">
-        <v>-121.4184369</v>
+        <v>-120.133247</v>
       </c>
       <c r="O41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Q41" t="s">
         <v>104</v>
       </c>
       <c r="R41" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="S41" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="T41" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="U41" s="1">
-        <v>41822</v>
+        <v>38861</v>
       </c>
       <c r="V41" s="1">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -4299,15 +4324,15 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
         <v>171</v>
@@ -4316,28 +4341,34 @@
         <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>22</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="I43">
-        <v>1730</v>
+        <v>1569</v>
       </c>
       <c r="J43">
-        <v>5675.9</v>
+        <v>5147.6000000000004</v>
       </c>
       <c r="K43">
-        <v>39.338200000000001</v>
+        <v>39.427686999999999</v>
       </c>
       <c r="L43">
-        <v>-120.13326000000001</v>
+        <v>-120.034064</v>
       </c>
       <c r="M43">
-        <v>39.338194700000003</v>
+        <v>39.427681700000001</v>
       </c>
       <c r="N43">
-        <v>-120.133247</v>
+        <v>-120.03405100000001</v>
       </c>
       <c r="O43">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P43" t="s">
         <v>172</v>
@@ -4346,7 +4377,7 @@
         <v>104</v>
       </c>
       <c r="R43" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="S43" t="s">
         <v>174</v>
@@ -4355,218 +4386,208 @@
         <v>175</v>
       </c>
       <c r="U43" s="1">
-        <v>38861</v>
+        <v>36084</v>
       </c>
       <c r="V43" s="1">
         <v>43629</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>216</v>
+      <c r="H44" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="I44">
-        <v>1715</v>
-      </c>
-      <c r="J44">
-        <v>5626.6</v>
+        <v>-3</v>
       </c>
       <c r="K44">
-        <v>39.435865</v>
+        <v>37.992533000000002</v>
       </c>
       <c r="L44">
-        <v>-120.084537</v>
+        <v>-121.454032</v>
       </c>
       <c r="M44">
-        <v>39.435859700000002</v>
+        <v>37.992527899999999</v>
       </c>
       <c r="N44">
-        <v>-120.084524</v>
+        <v>-121.45401889999999</v>
       </c>
       <c r="O44">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Q44" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="R44" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="S44" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="U44" s="1">
-        <v>39148</v>
+        <v>39982</v>
       </c>
       <c r="V44" s="1">
-        <v>43629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>216</v>
+      <c r="H45" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="I45">
-        <v>1569</v>
-      </c>
-      <c r="J45">
-        <v>5147.6000000000004</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>39.427686999999999</v>
+        <v>37.870944000000001</v>
       </c>
       <c r="L45">
-        <v>-120.034064</v>
+        <v>-121.53</v>
       </c>
       <c r="M45">
-        <v>39.427681700000001</v>
+        <v>37.870938899999999</v>
       </c>
       <c r="N45">
-        <v>-120.03405100000001</v>
+        <v>-121.5299869</v>
       </c>
       <c r="O45">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="Q45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R45" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="S45" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="U45" s="1">
-        <v>36084</v>
+        <v>39171</v>
       </c>
       <c r="V45" s="1">
-        <v>43629</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>206</v>
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>211</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
       <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>3.3</v>
+        <v>-3</v>
       </c>
       <c r="K46">
-        <v>37.831801400000003</v>
+        <v>37.963996000000002</v>
       </c>
       <c r="L46">
-        <v>-121.5351036</v>
+        <v>-121.59484999999999</v>
       </c>
       <c r="M46">
-        <v>37.828000000000003</v>
+        <v>37.963990899999999</v>
       </c>
       <c r="N46">
-        <v>-121.5526</v>
-      </c>
-      <c r="O46" t="s">
-        <v>107</v>
+        <v>-121.5948369</v>
+      </c>
+      <c r="O46">
+        <v>15</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="Q46" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="R46" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="S46" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="T46" t="s">
+        <v>91</v>
       </c>
       <c r="U46" s="1">
-        <v>43200</v>
+        <v>39238</v>
       </c>
       <c r="V46" s="1">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C47" t="s">
@@ -4581,10 +4602,10 @@
       <c r="F47" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I47">
@@ -4627,11 +4648,11 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C48" t="s">
@@ -4646,10 +4667,10 @@
       <c r="F48" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I48">
@@ -4686,27 +4707,24 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>205</v>
       </c>
@@ -4721,6 +4739,9 @@
         <filter val="Temp, EC, Turb, Chlor"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W48">
+      <sortCondition ref="A1:A50"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4735,109 +4756,109 @@
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4856,10 +4877,10 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I2">
@@ -4905,7 +4926,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4924,10 +4945,10 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I3">
@@ -4973,7 +4994,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4992,10 +5013,10 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I4">
@@ -5041,7 +5062,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -5060,25 +5081,25 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>37.968978999999997</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>-121.572694</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>37.968966999999999</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>-121.572695</v>
       </c>
       <c r="O5">
@@ -5109,7 +5130,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -5128,25 +5149,25 @@
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>38.055469000000002</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>-121.667129</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>38.055463899999999</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>-121.6671159</v>
       </c>
       <c r="O6">
@@ -5177,7 +5198,7 @@
         <v>42445</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -5196,10 +5217,10 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I7">
@@ -5245,7 +5266,7 @@
         <v>43621</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -5264,10 +5285,10 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I8">
@@ -5313,7 +5334,7 @@
         <v>42445</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -5332,10 +5353,10 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>214</v>
       </c>
       <c r="I9">
@@ -5381,7 +5402,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -5400,10 +5421,10 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I10">
@@ -5449,7 +5470,7 @@
         <v>42089</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5468,10 +5489,10 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I11">
@@ -5517,7 +5538,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -5536,10 +5557,10 @@
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I12">
@@ -5585,7 +5606,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -5604,10 +5625,10 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I13">
@@ -5653,73 +5674,73 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <v>37.820110999999997</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>-121.449833</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>37.820105900000001</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>-121.44981989999999</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>27</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="4">
         <v>38782</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="4">
         <v>43315</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -5738,10 +5759,10 @@
       <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I15">
@@ -5787,139 +5808,139 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <v>37.814722000000003</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="3">
         <v>-121.42522200000001</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="3">
         <v>37.814716900000001</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>-121.4252089</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="3">
         <v>29</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="4">
         <v>38887</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="W16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="4">
         <v>43330</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
         <v>37.890777999999997</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="3">
         <v>-121.488361</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="3">
         <v>37.890772900000002</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <v>-121.48834789999999</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="3">
         <v>30</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="U17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="4">
         <v>38771</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="W17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="4">
         <v>43326</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -5938,10 +5959,10 @@
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>214</v>
       </c>
       <c r="I18">
@@ -5987,7 +6008,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -6006,10 +6027,10 @@
       <c r="F19" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>215</v>
       </c>
       <c r="I19">
@@ -6055,7 +6076,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>147</v>
       </c>
@@ -6074,10 +6095,10 @@
       <c r="F20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I20">
@@ -6123,7 +6144,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -6142,10 +6163,10 @@
       <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I21">
@@ -6191,73 +6212,73 @@
         <v>42915</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
         <v>37.810250000000003</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="3">
         <v>-121.54219399999999</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="3">
         <v>37.810244900000001</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="3">
         <v>-121.54218090000001</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="3">
         <v>35</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="T22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="U22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="4">
         <v>36644</v>
       </c>
-      <c r="W22" s="6" t="s">
+      <c r="W22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="4">
         <v>43067</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -6276,10 +6297,10 @@
       <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I23">
@@ -6325,7 +6346,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -6344,10 +6365,10 @@
       <c r="F24" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="5" t="s">
         <v>215</v>
       </c>
       <c r="I24">
@@ -6393,7 +6414,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -6412,10 +6433,10 @@
       <c r="F25" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I25">
@@ -6461,11 +6482,11 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>206</v>
       </c>
       <c r="C26" t="s">
@@ -6480,10 +6501,10 @@
       <c r="F26" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I26">
@@ -6529,11 +6550,11 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C27" t="s">
@@ -6548,10 +6569,10 @@
       <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I27">
@@ -6597,11 +6618,11 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C28" t="s">
@@ -6616,10 +6637,10 @@
       <c r="F28" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="5" t="s">
         <v>211</v>
       </c>
       <c r="I28">
